--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-initial-care-intensity-cs.xlsx
+++ b/CodeSystem-initial-care-intensity-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
